--- a/uploads/marked_Lesson 1 Problem Statement.xlsx
+++ b/uploads/marked_Lesson 1 Problem Statement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,49 +446,59 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>StudentID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Q1)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Q2)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Q3)
 </t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>marked-&gt;</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Q1)_Mark</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Q2)_Mark</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Q3)
 _Mark</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_marks</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Total Score %</t>
         </is>
       </c>
     </row>
@@ -510,9 +520,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -520,6 +528,12 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,17 +551,18 @@
       <c r="C3" t="n">
         <v>22001329</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SELECT title FROM book WHERE quantity_available = 2;</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT publisher_adess,  publisher_name FROM publisher WHERE publisher_country != 'usa'; </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT isbn, title, language, type 
 FROM book 
@@ -556,10 +571,7 @@
 </t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -567,7 +579,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
         <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -584,21 +602,22 @@
       <c r="C4" t="n">
         <v>22001332</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SELECT title 
 FROM book 
 WHERE NOT quantity_available &gt; 0;</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>SELECT publisher_name, publisher_address 
 FROM publisher 
 WHERE publisher_country &lt;&gt; 'usa';</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>SELECT isbn, title, language, type 
 FROM book 
@@ -606,10 +625,7 @@
 AND type IN ('ebook', 'audio');</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
@@ -617,7 +633,13 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -634,25 +656,23 @@
       <c r="C5" t="n">
         <v>22001291</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>SELECT title FROM book WHERE quantity_available = 0;</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT publisher_address,  publisher_name FROM publisher WHERE publisher_country != 'usa'; </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>SELECT isbn, title, language, type FROM book WHERE language &lt;&gt; 'english' AND ( type = 'ebook' OR type = 'audio');</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>2</v>
       </c>
@@ -660,7 +680,13 @@
         <v>2</v>
       </c>
       <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
         <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
